--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4001.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4001.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.374169176242719</v>
+        <v>2.115108251571655</v>
       </c>
       <c r="B1">
-        <v>2.488362961729561</v>
+        <v>4.159480571746826</v>
       </c>
       <c r="C1">
-        <v>3.218025910532201</v>
+        <v>4.434149265289307</v>
       </c>
       <c r="D1">
-        <v>3.815247583471876</v>
+        <v>8.109818458557129</v>
       </c>
       <c r="E1">
-        <v>1.994472466178402</v>
+        <v>3.093109607696533</v>
       </c>
     </row>
   </sheetData>
